--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,13 +4473,28 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B270" t="b">
-        <v>0</v>
-      </c>
-      <c r="C270" t="inlineStr">
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,13 +4488,28 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B271" t="b">
-        <v>0</v>
-      </c>
-      <c r="C271" t="inlineStr">
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+      <c r="C272" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,13 +4503,28 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B272" t="b">
-        <v>0</v>
-      </c>
-      <c r="C272" t="inlineStr">
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+      <c r="C273" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,13 +4518,28 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B273" t="b">
-        <v>0</v>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+      <c r="C274" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4436,14 +4436,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,13 +4533,28 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B274" t="b">
-        <v>0</v>
-      </c>
-      <c r="C274" t="inlineStr">
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,13 +4548,28 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B275" t="b">
-        <v>0</v>
-      </c>
-      <c r="C275" t="inlineStr">
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4466,14 +4466,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,13 +4563,28 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B276" t="b">
-        <v>0</v>
-      </c>
-      <c r="C276" t="inlineStr">
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+      <c r="C277" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4481,14 +4481,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,13 +4578,28 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B277" t="b">
-        <v>0</v>
-      </c>
-      <c r="C277" t="inlineStr">
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+      <c r="C278" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4496,14 +4496,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,13 +4593,28 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-      <c r="C278" t="inlineStr">
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+      <c r="C279" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,13 +4608,28 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-      <c r="C279" t="inlineStr">
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+      <c r="C280" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,13 +4623,28 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B280" t="b">
-        <v>0</v>
-      </c>
-      <c r="C280" t="inlineStr">
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+      <c r="C281" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4541,14 +4541,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,13 +4638,28 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-      <c r="C281" t="inlineStr">
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+      <c r="C282" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4556,14 +4556,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,13 +4653,28 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-      <c r="C282" t="inlineStr">
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+      <c r="C283" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,13 +4668,28 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-      <c r="C283" t="inlineStr">
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+      <c r="C284" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4586,14 +4586,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,13 +4683,28 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-      <c r="C284" t="inlineStr">
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4601,14 +4601,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,13 +4698,28 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-      <c r="C285" t="inlineStr">
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+      <c r="C286" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,13 +4713,28 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B286" t="b">
-        <v>0</v>
-      </c>
-      <c r="C286" t="inlineStr">
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+      <c r="C287" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4631,14 +4631,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,13 +4728,28 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-      <c r="C287" t="inlineStr">
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+      <c r="C288" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4646,14 +4646,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,13 +4743,28 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+      <c r="C289" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,13 +4758,28 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-      <c r="C289" t="inlineStr">
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4676,14 +4676,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,13 +4773,28 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-      <c r="C290" t="inlineStr">
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+      <c r="C291" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4691,14 +4691,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,13 +4788,28 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-      <c r="C291" t="inlineStr">
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+      <c r="C292" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4706,14 +4706,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,13 +4803,28 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-      <c r="C292" t="inlineStr">
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+      <c r="C293" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,13 +4818,28 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-      <c r="C293" t="inlineStr">
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+      <c r="C294" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,13 +4833,28 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-      <c r="C294" t="inlineStr">
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4608,7 +4608,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4751,14 +4751,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -4848,13 +4848,28 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-      <c r="C295" t="inlineStr">
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+      <c r="C296" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4766,14 +4766,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -4863,13 +4863,28 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-      <c r="C296" t="inlineStr">
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+      <c r="C297" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240107_223311_284164</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4781,14 +4781,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -4863,7 +4863,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -4878,13 +4878,28 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-      <c r="C297" t="inlineStr">
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+      <c r="C298" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240131_154653_360175</t>
+          <t>20240201_083645_304679</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240107_223311_284164</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -4863,7 +4863,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -4878,7 +4878,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -4893,13 +4893,28 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-      <c r="C298" t="inlineStr">
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20240201_083645_304679</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240131_154653_360175</t>
+          <t>20240201_083645_304679</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240107_223311_284164</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4458,7 +4458,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231103_181343_129089</t>
+          <t>20231103_181454_967920</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20231103_181243_036319</t>
+          <t>20231103_181343_129089</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20231031_202051_928436</t>
+          <t>20231103_181243_036319</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20231028_223219_368339</t>
+          <t>20231031_202051_928436</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20231028_182030_213155</t>
+          <t>20231028_223219_368339</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20231028_182003_443829</t>
+          <t>20231028_182030_213155</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20231019_225629_050952</t>
+          <t>20231028_182003_443829</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20231019_225522_744102</t>
+          <t>20231019_225629_050952</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20231019_224959_976487</t>
+          <t>20231019_225522_744102</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20231019_223612_427800</t>
+          <t>20231019_224959_976487</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20231019_223233_076679</t>
+          <t>20231019_223612_427800</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20231019_222807_116502</t>
+          <t>20231019_223233_076679</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20231019_222409_329463</t>
+          <t>20231019_222807_116502</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -4811,14 +4811,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=100schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20231019_222014_425615</t>
+          <t>20231019_222409_329463</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20231019_221846_236839</t>
+          <t>20231019_222014_425615</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20231019_221754_325994</t>
+          <t>20231019_221846_236839</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -4863,7 +4863,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20231019_221705_235893</t>
+          <t>20231019_221754_325994</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -4878,7 +4878,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20231019_221523_617652</t>
+          <t>20231019_221705_235893</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -4893,7 +4893,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20231019_221248_289539</t>
+          <t>20231019_221523_617652</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -4908,13 +4908,28 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
+          <t>20231019_221248_289539</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
           <t>20231019_221153_932307</t>
         </is>
       </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-      <c r="C299" t="inlineStr">
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+      <c r="C300" t="inlineStr">
         <is>
           <t>输入:-将输入区域为500x500的网格16个样本，train:test=12:4-所有变量都用最大最小归一化；DEM_max=最值,降雨_max=峰值，内涝_max=峰值3500mm，不透水性_max=0.95，排水口_max=1-去除机理:flow_volumn-loc=0window_size改为事件长度seq_num=45,顺序窗口-将完整的一场降雨-内涝事件送进去训练（包括降雨期间和降雨结束的退水过程）输出:当前时刻的洪水模型:GRU,卷积核1x1；stride=2改为1，用平均池化来做下采样(16_64_96)cls和reg走branch+4层Conv的head:cls不加GN,reg不加GNED不加GN用cls修正reg损失函数:新的FocalBCE_and_WMSE@0.8不上限1e+5reg*2*4.5head激活函数：acts=["silu"]*3+["sigmoid","lrelu"]模型优化方案:-lr=1e-2(multi),patience=10,factor=0.9,min_lr=1e-4epoch=1000schedule:WarmUpCosineAnneal；ifTrue:-用checkpoint技术去除AMP技术(pytorch版本，不做梯度scale)其他:每个epoch都保存；DDP技术</t>
         </is>

--- a/exp_records/ConvLSTM-model optimize_exp_records.xlsx
+++ b/exp_records/ConvLSTM-model optimize_exp_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20240201_083645_304679</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20240131_154653_360175</t>
+          <t>20240201_083645_304679</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240107_223311_284164</t>
+          <t>20240131_154653_360175</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240107_222909_073593</t>
+          <t>20240107_223311_284164</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240107_222813_242888</t>
+          <t>20240107_222909_073593</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20240107_222708_640386</t>
+          <t>20240107_222813_242888</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240107_222545_993600</t>
+          <t>20240107_222708_640386</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240107_222306_310729</t>
+          <t>20240107_222545_993600</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240107_221937_777659</t>
+          <t>20240107_222306_310729</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240107_165946_654386</t>
+          <t>20240107_221937_777659</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20240107_151256_745419</t>
+          <t>20240107_165946_654386</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240107_143445_852301</t>
+          <t>20240107_151256_745419</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231227_102420_153171</t>
+          <t>20240107_143445_852301</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231227_102313_554299</t>
+          <t>20231227_102420_153171</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231227_102246_623872</t>
+          <t>20231227_102313_554299</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231227_102220_850079</t>
+          <t>20231227_102246_623872</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231216_235718_449685</t>
+          <t>20231227_102220_850079</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231216_235115_241199</t>
+          <t>20231216_235718_449685</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20231216_180837_118176</t>
+          <t>20231216_235115_241199</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20231216_180653_622363</t>
+          <t>20231216_180837_118176</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20231216_180426_801792</t>
+          <t>20231216_180653_622363</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20231216_180258_393755</t>
+          <t>20231216_180426_801792</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20231216_180033_221754</t>
+          <t>20231216_180258_393755</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20231207_113046_372382</t>
+          <t>20231216_180033_221754</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20231207_112325_242059</t>
+          <t>20231207_113046_372382</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20231207_112259_071172</t>
+          <t>20231207_112325_242059</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20231207_090115_723293</t>
+          <t>20231207_112259_071172</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20231207_090053_080374</t>
+          <t>20231207_090115_723293</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20231207_084925_595576</t>
+          <t>20231207_090053_080374</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20231207_030145_101237</t>
+          <t>20231207_084925_595576</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20231207_030028_258204</t>
+          <t>20231207_030145_101237</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20231207_025934_234265</t>
+          <t>20231207_030028_258204</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20231207_025837_706866</t>
+          <t>20231207_025934_234265</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20231207_025733_058411</t>
+          <t>20231207_025837_706866</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20231207_025639_518407</t>
+          <t>20231207_025733_058411</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20231207_025525_530772</t>
+          <t>20231207_025639_518407</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20231206_203912_945778</t>
+          <t>20231207_025525_530772</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20231206_203732_511805</t>
+          <t>20231206_203912_945778</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20231206_203631_974749</t>
+          <t>20231206_203732_511805</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20231206_203534_605477</t>
+          <t>20231206_203631_974749</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20231206_180133_290973</t>
+          <t>20231206_203534_605477</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20231206_180008_928152</t>
+          <t>20231206_180133_290973</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20231206_175722_263578</t>
+          <t>20231206_180008_928152</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20231206_175505_618188</t>
+          <t>20231206_175722_263578</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20231206_175415_381492</t>
+          <t>20231206_175505_618188</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20231205_133846_070349</t>
+          <t>20231206_175415_381492</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231205_133846_070349</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20231202_142212_096527</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20231201_132633_036075</t>
+          <t>20231202_142212_096527</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20231201_120850_697290</t>
+          <t>20231201_132633_036075</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20231201_115617_652012</t>
+          <t>20231201_120850_697290</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20231201_115444_019756</t>
+          <t>20231201_115617_652012</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20231201_115405_216963</t>
+          <t>20231201_115444_019756</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20231201_115330_305849</t>
+          <t>20231201_115405_216963</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20231201_115302_614169</t>
+          <t>20231201_115330_305849</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20231201_115211_028186</t>
+          <t>20231201_115302_614169</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20231129_102158_404811</t>
+          <t>20231201_115211_028186</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20231129_102140_469182</t>
+          <t>20231129_102158_404811</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20231129_101944_684043</t>
+          <t>20231129_102140_469182</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20231128_224850_008023</t>
+          <t>20231129_101944_684043</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20231128_224736_633837</t>
+          <t>20231128_224850_008023</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20231128_224642_967117</t>
+          <t>20231128_224736_633837</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20231128_140127_615032</t>
+          <t>20231128_224642_967117</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20231128_135015_373153</t>
+          <t>20231128_140127_615032</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20231128_005853_036457</t>
+          <t>20231128_135015_373153</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20231127_120229_619422</t>
+          <t>20231128_005853_036457</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20231127_120209_616263</t>
+          <t>20231127_120229_619422</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20231127_120200_313193</t>
+          <t>20231127_120209_616263</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20231126_221630_197381</t>
+          <t>20231127_120200_313193</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20231126_114433_959406</t>
+          <t>20231126_221630_197381</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20231125_152338_028640</t>
+          <t>20231126_114433_959406</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20231125_152213_023314</t>
+          <t>20231125_152338_028640</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20231125_152053_551013</t>
+          <t>20231125_152213_023314</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20231124_034057_853714</t>
+          <t>20231125_152053_551013</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20231124_033834_349166</t>
+          <t>20231124_034057_853714</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20231124_033812_040122</t>
+          <t>20231124_033834_349166</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20231124_032333_336579</t>
+          <t>20231124_033812_040122</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20231124_032305_732843</t>
+          <t>20231124_032333_336579</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20231123_162411_657188</t>
+          <t>20231124_032305_732843</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20231123_162147_359765</t>
+          <t>20231123_162411_657188</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20231123_161837_440357</t>
+          <t>20231123_162147_359765</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20231123_161040_323834</t>
+          <t>20231123_161837_440357</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20231123_150613_503220</t>
+          <t>20231123_161040_323834</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20231123_150331_971575</t>
+          <t>20231123_150613_503220</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20231123_150140_039263</t>
+          <t>20231123_150331_971575</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20231123_145623_571004</t>
+          <t>20231123_150140_039263</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20231123_020441_314457</t>
+          <t>20231123_145623_571004</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20231123_015459_156390</t>
+          <t>20231123_020441_314457</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20231123_015332_760774</t>
+          <t>20231123_015459_156390</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20231123_015013_916618</t>
+          <t>20231123_015332_760774</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20231123_014909_399359</t>
+          <t>20231123_015013_916618</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20231123_014757_722107</t>
+          <t>20231123_014909_399359</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20231123_014723_543846</t>
+          <t>20231123_014757_722107</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20231123_011008_276968</t>
+          <t>20231123_014723_543846</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20231123_010828_499949</t>
+          <t>20231123_011008_276968</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20231123_010538_725692</t>
+          <t>20231123_010828_499949</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20231123_010429_120655</t>
+          <t>20231123_010538_725692</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20231123_010208_061448</t>
+          <t>20231123_010429_120655</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20231123_010156_248066</t>
+          <t>20231123_010208_061448</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20231123_010139_401356</t>
+          <t>20231123_010156_248066</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20231123_010047_440318</t>
+          <t>20231123_010139_401356</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20231123_005919_724882</t>
+          <t>20231123_010047_440318</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20231122_150207_669071</t>
+          <t>20231123_005919_724882</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20231122_115257_347095</t>
+          <t>20231122_150207_669071</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20231122_031753_232894</t>
+          <t>20231122_115257_347095</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20231122_031623_865196</t>
+          <t>20231122_031753_232894</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20231122_031419_323160</t>
+          <t>20231122_031623_865196</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20231122_031250_356534</t>
+          <t>20231122_031419_323160</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20231122_030219_476652</t>
+          <t>20231122_031250_356534</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20231122_025928_788554</t>
+          <t>20231122_030219_476652</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20231122_025833_493857</t>
+          <t>20231122_025928_788554</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20231121_222133_619985</t>
+          <t>20231122_025833_493857</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20231121_180529_158106</t>
+          <t>20231121_222133_619985</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20231121_175643_668173</t>
+          <t>20231121_180529_158106</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20231121_175445_087266</t>
+          <t>20231121_175643_668173</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20231121_175105_984815</t>
+          <t>20231121_175445_087266</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20231121_110639_279682</t>
+          <t>20231121_175105_984815</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20231121_110535_557365</t>
+          <t>20231121_110639_279682</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20231121_110506_665413</t>
+          <t>20231121_110535_557365</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20231121_110449_943391</t>
+          <t>20231121_110506_665413</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20231121_110412_368679</t>
+          <t>20231121_110449_943391</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20231121_110317_931315</t>
+          <t>20231121_110412_368679</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20231121_110221_768559</t>
+          <t>20231121_110317_931315</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -2418,7 +2418,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20231121_110129_893528</t>
+          <t>20231121_110221_768559</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -2433,7 +2433,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20231121_110053_873007</t>
+          <t>20231121_110129_893528</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20231121_105843_979532</t>
+          <t>20231121_110053_873007</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20231121_105715_635685</t>
+          <t>20231121_105843_979532</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20231121_105628_146751</t>
+          <t>20231121_105715_635685</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20231121_105457_358608</t>
+          <t>20231121_105628_146751</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20231121_105316_687546</t>
+          <t>20231121_105457_358608</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20231121_104958_270973</t>
+          <t>20231121_105316_687546</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20231121_104540_311985</t>
+          <t>20231121_104958_270973</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20231121_104415_215473</t>
+          <t>20231121_104540_311985</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20231120_221712_210284</t>
+          <t>20231121_104415_215473</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20231120_221531_496105</t>
+          <t>20231120_221712_210284</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20231120_221422_189932</t>
+          <t>20231120_221531_496105</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20231120_221339_652687</t>
+          <t>20231120_221422_189932</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20231120_180530_185026</t>
+          <t>20231120_221339_652687</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20231120_180454_833049</t>
+          <t>20231120_180530_185026</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20231120_180409_380360</t>
+          <t>20231120_180454_833049</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20231120_180018_688882</t>
+          <t>20231120_180409_380360</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -2688,7 +2688,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20231120_175835_501995</t>
+          <t>20231120_180018_688882</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20231120_175145_675086</t>
+          <t>20231120_175835_501995</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20231120_175113_590101</t>
+          <t>20231120_175145_675086</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20231120_175107_022278</t>
+          <t>20231120_175113_590101</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20231120_174941_890185</t>
+          <t>20231120_175107_022278</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20231120_174349_388791</t>
+          <t>20231120_174941_890185</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20231120_160754_595787</t>
+          <t>20231120_174349_388791</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20231120_155828_316350</t>
+          <t>20231120_160754_595787</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20231120_153313_671068</t>
+          <t>20231120_155828_316350</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20231120_153042_031904</t>
+          <t>20231120_153313_671068</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20231120_151356_637590</t>
+          <t>20231120_153042_031904</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20231120_150923_085515</t>
+          <t>20231120_151356_637590</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20231120_132014_305908</t>
+          <t>20231120_150923_085515</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20231120_121322_451437</t>
+          <t>20231120_132014_305908</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20231120_105550_409485</t>
+          <t>20231120_121322_451437</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20231120_105359_494463</t>
+          <t>20231120_105550_409485</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20231120_105124_327670</t>
+          <t>20231120_105359_494463</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20231120_105024_202402</t>
+          <t>20231120_105124_327670</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20231115_200648_209952</t>
+          <t>20231120_105024_202402</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20231115_182351_653161</t>
+          <t>20231115_200648_209952</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20231115_182117_709312</t>
+          <t>20231115_182351_653161</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -3003,7 +3003,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20231115_181946_163965</t>
+          <t>20231115_182117_709312</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20231115_181802_099029</t>
+          <t>20231115_181946_163965</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20231115_181652_004209</t>
+          <t>20231115_181802_099029</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20231115_175002_535492</t>
+          <t>20231115_181652_004209</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20231115_173122_622512</t>
+          <t>20231115_175002_535492</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20231115_173057_271606</t>
+          <t>20231115_173122_622512</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20231115_172950_367108</t>
+          <t>20231115_173057_271606</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20231115_172851_929902</t>
+          <t>20231115_172950_367108</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20231115_162106_356972</t>
+          <t>20231115_172851_929902</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20231115_161552_354515</t>
+          <t>20231115_162106_356972</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20231115_160512_051805</t>
+          <t>20231115_161552_354515</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20231115_155943_142301</t>
+          <t>20231115_160512_051805</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20231115_155328_145011</t>
+          <t>20231115_155943_142301</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20231115_125502_523052</t>
+          <t>20231115_155328_145011</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20231115_125424_960643</t>
+          <t>20231115_125502_523052</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20231115_125129_310656</t>
+          <t>20231115_125424_960643</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20231115_124907_090420</t>
+          <t>20231115_125129_310656</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20231115_124506_965814</t>
+          <t>20231115_124907_090420</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20231115_124245_440976</t>
+          <t>20231115_124506_965814</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20231115_124230_849656</t>
+          <t>20231115_124245_440976</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20231115_124110_109756</t>
+          <t>20231115_124230_849656</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20231115_112203_995010</t>
+          <t>20231115_124110_109756</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20231115_112114_644145</t>
+          <t>20231115_112203_995010</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20231115_112059_661396</t>
+          <t>20231115_112114_644145</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20231115_105319_229693</t>
+          <t>20231115_112059_661396</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20231115_104726_939528</t>
+          <t>20231115_105319_229693</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20231115_104632_734355</t>
+          <t>20231115_104726_939528</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20231114_213617_739611</t>
+          <t>20231115_104632_734355</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20231114_132929_808448</t>
+          <t>20231114_213617_739611</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20231114_132745_157233</t>
+          <t>20231114_132929_808448</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20231114_131557_386208</t>
+          <t>20231114_132745_157233</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20231114_131332_755577</t>
+          <t>20231114_131557_386208</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20231114_131239_142520</t>
+          <t>20231114_131332_755577</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20231114_130830_568371</t>
+          <t>20231114_131239_142520</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20231114_130606_949736</t>
+          <t>20231114_130830_568371</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20231114_130431_163462</t>
+          <t>20231114_130606_949736</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20231114_130329_477095</t>
+          <t>20231114_130431_163462</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -3558,7 +3558,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20231114_130106_886397</t>
+          <t>20231114_130329_477095</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20231114_125920_291179</t>
+          <t>20231114_130106_886397</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20231114_125825_178840</t>
+          <t>20231114_125920_291179</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20231114_125644_946654</t>
+          <t>20231114_125825_178840</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20231114_125428_078530</t>
+          <t>20231114_125644_946654</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20231114_125338_629288</t>
+          <t>20231114_125428_078530</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20231114_125239_066276</t>
+          <t>20231114_125338_629288</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20231114_125154_240060</t>
+          <t>20231114_125239_066276</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20231114_125044_846047</t>
+          <t>20231114_125154_240060</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20231114_124733_410507</t>
+          <t>20231114_125044_846047</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20231114_124706_054011</t>
+          <t>20231114_124733_410507</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20231114_124306_928560</t>
+          <t>20231114_124706_054011</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -3738,7 +3738,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20231114_014520_038903</t>
+          <t>20231114_124306_928560</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20231114_014444_140972</t>
+          <t>20231114_014520_038903</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20231113_212415_904958</t>
+          <t>20231114_014444_140972</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20231113_212239_102840</t>
+          <t>20231113_212415_904958</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20231113_212200_733598</t>
+          <t>20231113_212239_102840</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -3813,7 +3813,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20231113_160609_756987</t>
+          <t>20231113_212200_733598</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20231113_160532_176443</t>
+          <t>20231113_160609_756987</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20231113_133932_462492</t>
+          <t>20231113_160532_176443</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20231113_132810_973415</t>
+          <t>20231113_133932_462492</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -3873,7 +3873,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20231113_125501_295038</t>
+          <t>20231113_132810_973415</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -3888,7 +3888,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20231113_124532_437359</t>
+          <t>20231113_125501_295038</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -3903,7 +3903,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20231113_123605_758579</t>
+          <t>20231113_124532_437359</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20231113_122348_981006</t>
+          <t>20231113_123605_758579</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20231113_121548_077075</t>
+          <t>20231113_122348_981006</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20231113_121107_754253</t>
+          <t>20231113_121548_077075</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20231113_114313_526324</t>
+          <t>20231113_121107_754253</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20231113_114056_912980</t>
+          <t>20231113_114313_526324</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20231113_113605_950391</t>
+          <t>20231113_114056_912980</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20231113_112857_264458</t>
+          <t>20231113_113605_950391</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20231113_112034_919244</t>
+          <t>20231113_112857_264458</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20231113_111933_043287</t>
+          <t>20231113_112034_919244</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20231112_222741_665318</t>
+          <t>20231113_111933_043287</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20231112_221050_567160</t>
+          <t>20231112_222741_665318</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20231112_205353_600214</t>
+          <t>20231112_221050_567160</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20231112_205029_588358</t>
+          <t>20231112_205353_600214</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20231112_204911_951556</t>
+          <t>20231112_205029_588358</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20231112_165409_058905</t>
+          <t>20231112_204911_951556</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20231112_165231_404098</t>
+          <t>20231112_165409_058905</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20231112_165138_395578</t>
+          <t>20231112_165231_404098</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20231112_165118_372391</t>
+          <t>20231112_165138_395578</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20231112_164203_494355</t>
+          <t>20231112_165118_372391</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20231112_163858_603902</t>
+          <t>20231112_164203_494355</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20231112_163758_148646</t>
+          <t>20231112_163858_603902</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20231112_153817_748590</t>
+          <t>20231112_163758_148646</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20231111_234135_412729</t>
+          <t>20231112_153817_748590</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20231111_233808_724974</t>
+          <t>20231111_234135_412729</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -4278,7 +4278,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20231111_233311_236750</t>
+          <t>20231111_233808_724974</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20231111_010111_589227</t>
+          <t>20231111_233311_236750</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20231111_003921_043848</t>
+          <t>20231111_010111_589227</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20231111_003047_571226</t>
+          <t>20231111_003921_043848</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20231111_001532_702666</t>
+          <t>20231111_003047_571226</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20231111_001356_500830</t>
+          <t>20231111_001532_702666</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20231111_000709_086283</t>
+          <t>20231111_001356_500830</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20231110_231620_438598</t>
+          <t>20231111_000709_086283</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20231109_075809_818345</t>
+          <t>20231110_231620_438598</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20231107_151652_949285</t>
+          <t>20231109_075809_818345</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20231107_151258_798748</t>
+          <t>20231107_151652_949285</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231107_151258_798748</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20231103_192238_103755</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20231103_192206_771605</t>
+          <t>20231103_192238_103755</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20231103_192039_950223</t>
+          <t>20231103_192206_771605</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20231103_181712_110525</t>
+          <t>20231103_192039_950223</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20231103_181454_967920</t>
+          <t>20231103_181712_110525</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -4578,7 +4578,7 @@
     <row r="277">
      